--- a/Mifos Automation Excels/Client/4793-SUBMITSA01JAN2015(ACTPRD-30&LCKINPRD-15)-ACT01JAN2015-Addshares15on01FEB2015(checkPending).xlsx
+++ b/Mifos Automation Excels/Client/4793-SUBMITSA01JAN2015(ACTPRD-30&LCKINPRD-15)-ACT01JAN2015-Addshares15on01FEB2015(checkPending).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -269,11 +269,11 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,10 +880,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -907,13 +907,11 @@
       </c>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="6">
-        <v>122</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -927,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
@@ -938,10 +936,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -981,27 +979,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
